--- a/biology/Zoologie/Échidné/Échidné.xlsx
+++ b/biology/Zoologie/Échidné/Échidné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chidn%C3%A9</t>
+          <t>Échidné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les échidnés (du latin echidna, du grec ancien ἔχιδνα / ékhidna, « vipère » ; ou Tachyglossidae) sont des mammifères appartenant à l'ordre des monotrèmes (comme les ornithorynques) et à la famille de Tachyglossidae. Comme tous les monotrèmes, ils pondent des œufs, ce qui est un caractère ancestral perdu par les autres mammifères (les thériens). Il ne reste plus actuellement que quatre espèces vivantes : un échidné à nez court en Australie, et trois espèces de Nouvelle-Guinée, à long nez, qui sont en danger plus ou moins critique d'extinction.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chidn%C3%A9</t>
+          <t>Échidné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom échidné viendrait de Échidna (en grec ancien Ἔχιδνα / Ekhidna, « vipère »), une créature de la mythologie grecque moitié femme, moitié serpent, l'animal étant perçu comme ayant les caractéristiques à la fois des mammifères et des reptiles[3]. Toutefois, le terme pourrait également provenir du grec ancien ἐχῖνος (ekhinos) « hérisson » mais également « épine ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom échidné viendrait de Échidna (en grec ancien Ἔχιδνα / Ekhidna, « vipère »), une créature de la mythologie grecque moitié femme, moitié serpent, l'animal étant perçu comme ayant les caractéristiques à la fois des mammifères et des reptiles. Toutefois, le terme pourrait également provenir du grec ancien ἐχῖνος (ekhinos) « hérisson » mais également « épine ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chidn%C3%A9</t>
+          <t>Échidné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,15 @@
           <t>Description et mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les échidnés ont un corps robuste couvert d'un mélange de fourrure et de piquants, des membres fouisseurs, possèdent une petite bouche, avec une fine mâchoire, n'ont pas de dents mais une longue langue collante avec laquelle ils attrapent des termites et d'autres arthropodes.
 Les échidnés vivent généralement en solitaire.
 			Échidné à nez court (Tachyglossus aculeatus), en Australie.
 			Échidné à nez court roulé en boule (museau sur la droite).
 			Échidné à long nez (Zaglossus bruijni), en Nouvelle-Guinée.
-Reproduction
-Pendant la saison de reproduction, la femelle pond un œuf (rarement plus) qu'elle transfère directement du cloaque dans une poche ventrale temporaire pour une incubation d'une dizaine de jours. Nu à la naissance, le jeune reste à l'intérieur de celle-ci pendant six à huit semaines, léchant le lait qui s'écoule des glandes mammaires débouchant dans la poche.
 </t>
         </is>
       </c>
@@ -561,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chidn%C3%A9</t>
+          <t>Échidné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,21 +590,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description et mode de vie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la saison de reproduction, la femelle pond un œuf (rarement plus) qu'elle transfère directement du cloaque dans une poche ventrale temporaire pour une incubation d'une dizaine de jours. Nu à la naissance, le jeune reste à l'intérieur de celle-ci pendant six à huit semaines, léchant le lait qui s'écoule des glandes mammaires débouchant dans la poche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échidné</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chidn%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Au début du XXIe siècle, seulement quatre espèces d'échidnés vivantes sont recensées.
-Espèces vivantes
-Selon Mammal Species of the World (version 3, 2005)  (25 janv. 2013)[4], ITIS      (25 janv. 2013)[1], Catalogue of Life                                   (25 janv. 2013)[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début du XXIe siècle, seulement quatre espèces d'échidnés vivantes sont recensées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échidné</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chidn%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces vivantes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (25 janv. 2013), ITIS      (25 janv. 2013), Catalogue of Life                                   (25 janv. 2013)
 l'échidné à nez court : Tachyglossus aculeatus, décrit par Shaw en 1792, pesant de 3 à 6 kg, vivant en Australie et en Tasmanie ;
-les échidnés à long nez (genre Zaglossus)[6], vivant en Nouvelle-Guinée :
+les échidnés à long nez (genre Zaglossus), vivant en Nouvelle-Guinée :
 Zaglossus bruijni,
 Zaglossus attenboroughi,
-Zaglossus bartoni, redécouvert en 1998.
-Espèces éteintes
-Le site Mikko's Phylogeny Archive[7], cite plusieurs espèces éteintes du genre Zaglossus :
+Zaglossus bartoni, redécouvert en 1998.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échidné</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chidn%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces éteintes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le site Mikko's Phylogeny Archive, cite plusieurs espèces éteintes du genre Zaglossus :
 †Zaglossus owenii ;
 †Zaglossus ramsayi (Owen, 1884) ;
 †Zaglossus robustus (Dun, 1895) ;
@@ -599,31 +721,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89chidn%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échidné</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89chidn%C3%A9</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Échidné dans la culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'échidné figure sur la pièce australienne de 5 cents. Par ailleurs, Knuckles, ancien rival de Sonic, est un héros du jeu vidéo du même nom.
 </t>
